--- a/PrimaryDataExcel.xlsx
+++ b/PrimaryDataExcel.xlsx
@@ -147,9 +147,6 @@
     <t>primary_code</t>
   </si>
   <si>
-    <t>subagency_name</t>
-  </si>
-  <si>
     <t>AGENCY FOR HEALTHCARE RESEARCH AND QUALITY</t>
   </si>
   <si>
@@ -559,6 +556,9 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1180,13 +1180,13 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>18.66</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>0.12</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1">
         <v>2.06</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <v>4.2300000000000004</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>1.01</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
         <v>0.84</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1">
         <v>4.43</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1">
         <v>0.94</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1">
         <v>0.3</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1">
         <v>2.9</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1">
         <v>0.13</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3">
         <v>1.83</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>0.05</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>1.43</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
         <v>0.92</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1">
         <v>2.2599999999999998</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1">
         <v>2.42</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1">
         <v>1.75</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1">
         <v>0.28999999999999998</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1">
         <v>7.84</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1">
         <v>0.11</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1">
         <v>0.03</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1">
         <v>2.38</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1">
         <v>7.82</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1">
         <v>0.26</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1">
         <v>0.57999999999999996</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1">
         <v>2.02</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1">
         <v>2.21</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1">
         <v>0.11</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1">
         <v>1.33</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1">
         <v>0.92</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1">
         <v>2.13</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1">
         <v>0.23</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1">
         <v>0.17</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1">
         <v>0.77</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1">
         <v>0.15</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1">
         <v>0.06</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1">
         <v>1.47</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="1">
         <v>0.13</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="1">
         <v>0.01</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1">
         <v>0.1</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1">
         <v>0.71</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1900,7 +1900,7 @@
         <v>5.91</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="1">
         <v>3.74</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="1">
         <v>0.78</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="1">
         <v>0.06</v>
       </c>
       <c r="D55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>0.06</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="1">
         <v>0.15</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" s="1">
         <v>0.43</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" s="1">
         <v>0.38</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" s="1">
         <v>0.18</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" s="1">
         <v>0.05</v>
       </c>
       <c r="D61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="1">
         <v>0.02</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" s="1">
         <v>5.68</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="1">
         <v>0.06</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1">
         <v>0.42</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="1">
         <v>0.52</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" s="1">
         <v>0.16</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" s="1">
         <v>2.31</v>
       </c>
       <c r="D69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1">
         <v>0.18</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C71" s="1">
         <v>2.04</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="1">
         <v>0.25</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" s="1">
         <v>0.38</v>
       </c>
       <c r="D73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74" s="1">
         <v>0.02</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75" s="1">
         <v>0.3</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C76" s="1">
         <v>0.05</v>
       </c>
       <c r="D76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="1">
         <v>1.98</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C78" s="1">
         <v>0.71</v>
       </c>
       <c r="D78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="1">
         <v>0.01</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="1">
         <v>0.25</v>
       </c>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" s="1">
         <v>0.33</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2334,7 +2334,7 @@
         <v>3.3</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" s="1">
         <v>0.32</v>
       </c>
       <c r="D84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="1">
         <v>1.25</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C86" s="1">
         <v>0.13</v>
       </c>
       <c r="D86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C87" s="1">
         <v>0.66</v>
       </c>
       <c r="D87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C88" s="1">
         <v>0.85</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C89" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C90" s="1">
         <v>2.06</v>
       </c>
       <c r="D90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C91" s="1">
         <v>0.03</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C92" s="1">
         <v>0.01</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" s="1">
         <v>0.6</v>
       </c>
       <c r="D93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C94" s="3">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C95" s="1">
         <v>0.19</v>
       </c>
       <c r="D95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C97" s="1">
         <v>0.08</v>
       </c>
       <c r="D97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="1">
         <v>0.1</v>
       </c>
       <c r="D98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="1">
         <v>0.03</v>
       </c>
       <c r="D99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" s="1">
         <v>0.08</v>
       </c>
       <c r="D100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" s="1">
         <v>0.05</v>
       </c>
       <c r="D101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" s="1">
         <v>1.86</v>
       </c>
       <c r="D103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C105" s="1">
         <v>1.42</v>
       </c>
       <c r="D105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C106" s="1">
         <v>0.05</v>
       </c>
       <c r="D106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C107" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" s="1">
         <v>0.05</v>
       </c>
       <c r="D108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2692,13 +2692,13 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="1">
         <v>0.15</v>
       </c>
       <c r="D109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2706,13 +2706,13 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C110" s="1">
         <v>0.01</v>
       </c>
       <c r="D110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2720,13 +2720,13 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C111" s="3">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2734,13 +2734,13 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2748,13 +2748,13 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C113" s="1">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2762,13 +2762,13 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C114" s="1">
         <v>0.01</v>
       </c>
       <c r="D114" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2776,13 +2776,13 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C115" s="1">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2790,13 +2790,13 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C116" s="1">
         <v>0.08</v>
       </c>
       <c r="D116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2804,13 +2804,13 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C117" s="1">
         <v>0.05</v>
       </c>
       <c r="D117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2818,13 +2818,13 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C118" s="1">
         <v>0.91</v>
       </c>
       <c r="D118" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2832,13 +2832,13 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C119" s="1">
         <v>0.01</v>
       </c>
       <c r="D119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2846,13 +2846,13 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C120" s="1">
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2860,13 +2860,13 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C121" s="1">
         <v>0.09</v>
       </c>
       <c r="D121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2874,13 +2874,13 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C122" s="1">
         <v>0.21</v>
       </c>
       <c r="D122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2888,13 +2888,13 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C123" s="1">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2902,13 +2902,13 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C124" s="1">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2916,13 +2916,13 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C125" s="3">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C126" s="1">
         <v>0.02</v>
       </c>
       <c r="D126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C127" s="1">
         <v>0.02</v>
       </c>
       <c r="D127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C128" s="1">
         <v>0.37</v>
       </c>
       <c r="D128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C129" s="1">
         <v>0.01</v>
       </c>
       <c r="D129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2986,13 +2986,13 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C130" s="1">
         <v>0.19</v>
       </c>
       <c r="D130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3000,13 +3000,13 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C131" s="1">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3014,13 +3014,13 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C132" s="1">
         <v>0.68</v>
       </c>
       <c r="D132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3028,13 +3028,13 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C133" s="1">
         <v>0.03</v>
       </c>
       <c r="D133" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C134" s="1">
         <v>0.1</v>
       </c>
       <c r="D134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3056,13 +3056,13 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C135" s="1">
         <v>0.33</v>
       </c>
       <c r="D135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C136" s="1">
         <v>0.01</v>
       </c>
       <c r="D136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C137" s="1">
         <v>0.04</v>
       </c>
       <c r="D137" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C138" s="1">
         <v>0.38</v>
       </c>
       <c r="D138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C139" s="1">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3126,13 +3126,13 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C140" s="1">
         <v>0.11</v>
       </c>
       <c r="D140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3140,13 +3140,13 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C141" s="1">
         <v>0.26</v>
       </c>
       <c r="D141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3154,13 +3154,13 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C142" s="1">
         <v>1.17</v>
       </c>
       <c r="D142" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C143" s="1">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C144" s="1">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3196,13 +3196,13 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C145" s="3">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C146" s="1">
         <v>0.03</v>
       </c>
       <c r="D146" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/PrimaryDataExcel.xlsx
+++ b/PrimaryDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="314">
   <si>
     <t>OTHER SMALLER AGENCIES</t>
   </si>
@@ -559,6 +559,405 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>sub_code</t>
+  </si>
+  <si>
+    <t>HRQ</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>CMM</t>
+  </si>
+  <si>
+    <t>FDA</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>HIS</t>
+  </si>
+  <si>
+    <t>NIH</t>
+  </si>
+  <si>
+    <t>OAS</t>
+  </si>
+  <si>
+    <t>OIG</t>
+  </si>
+  <si>
+    <t>OASA</t>
+  </si>
+  <si>
+    <t>SAMHRSA</t>
+  </si>
+  <si>
+    <t>FEME</t>
+  </si>
+  <si>
+    <t>FLETC</t>
+  </si>
+  <si>
+    <t>OPO</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t>USCIS</t>
+  </si>
+  <si>
+    <t>USCG</t>
+  </si>
+  <si>
+    <t>USCBP</t>
+  </si>
+  <si>
+    <t>USICE</t>
+  </si>
+  <si>
+    <t>USSS</t>
+  </si>
+  <si>
+    <t>FAS</t>
+  </si>
+  <si>
+    <t>OTA</t>
+  </si>
+  <si>
+    <t>PBS</t>
+  </si>
+  <si>
+    <t>TTS</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>ATFAPM</t>
+  </si>
+  <si>
+    <t>DEA</t>
+  </si>
+  <si>
+    <t>FBI</t>
+  </si>
+  <si>
+    <t>FPI</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>OJP</t>
+  </si>
+  <si>
+    <t>OBD</t>
+  </si>
+  <si>
+    <t>USMS</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>APHSS</t>
+  </si>
+  <si>
+    <t>FSA</t>
+  </si>
+  <si>
+    <t>FNS</t>
+  </si>
+  <si>
+    <t>FSIS</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>NRCS</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>USDACFO</t>
+  </si>
+  <si>
+    <t>FAA</t>
+  </si>
+  <si>
+    <t>FHA</t>
+  </si>
+  <si>
+    <t>FMCSA</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>FTA</t>
+  </si>
+  <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>NHTSA</t>
+  </si>
+  <si>
+    <t>PHMSA</t>
+  </si>
+  <si>
+    <t>SLSDC</t>
+  </si>
+  <si>
+    <t>FERC</t>
+  </si>
+  <si>
+    <t>BEP</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>IRS</t>
+  </si>
+  <si>
+    <t>OCC</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>BIABIE</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>BOEM</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>BSEE</t>
+  </si>
+  <si>
+    <t>NPS</t>
+  </si>
+  <si>
+    <t>OSMRE</t>
+  </si>
+  <si>
+    <t>USFWS</t>
+  </si>
+  <si>
+    <t>USGS</t>
+  </si>
+  <si>
+    <t>AID</t>
+  </si>
+  <si>
+    <t>NIST</t>
+  </si>
+  <si>
+    <t>NOAA</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>USCB</t>
+  </si>
+  <si>
+    <t>USPTO</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>ETA</t>
+  </si>
+  <si>
+    <t>MSHA</t>
+  </si>
+  <si>
+    <t>OASAM</t>
+  </si>
+  <si>
+    <t>ACUS</t>
+  </si>
+  <si>
+    <t>BBG</t>
+  </si>
+  <si>
+    <t>CSHIB</t>
+  </si>
+  <si>
+    <t>CFTC</t>
+  </si>
+  <si>
+    <t>CFPB</t>
+  </si>
+  <si>
+    <t>CPSC</t>
+  </si>
+  <si>
+    <t>CNCS</t>
+  </si>
+  <si>
+    <t>CSOSA</t>
+  </si>
+  <si>
+    <t>DNFSB</t>
+  </si>
+  <si>
+    <t>EAC</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>EEOC</t>
+  </si>
+  <si>
+    <t>EOP</t>
+  </si>
+  <si>
+    <t>EIBUS</t>
+  </si>
+  <si>
+    <t>FCC</t>
+  </si>
+  <si>
+    <t>FEC</t>
+  </si>
+  <si>
+    <t>FHFA</t>
+  </si>
+  <si>
+    <t>FLRA</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>FMCS</t>
+  </si>
+  <si>
+    <t>FMSHRC</t>
+  </si>
+  <si>
+    <t>FTC</t>
+  </si>
+  <si>
+    <t>GAO</t>
+  </si>
+  <si>
+    <t>HUD</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>MSPB</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>NARA</t>
+  </si>
+  <si>
+    <t>NCPC</t>
+  </si>
+  <si>
+    <t>NEA</t>
+  </si>
+  <si>
+    <t>NEH</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>NLRB</t>
+  </si>
+  <si>
+    <t>NSF</t>
+  </si>
+  <si>
+    <t>NTSB</t>
+  </si>
+  <si>
+    <t>NRC</t>
+  </si>
+  <si>
+    <t>OSHRC</t>
+  </si>
+  <si>
+    <t>OPM</t>
+  </si>
+  <si>
+    <t>OPIC</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PBGC</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>RRB</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>SBA</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>CIGIE</t>
+  </si>
+  <si>
+    <t>USCC</t>
+  </si>
+  <si>
+    <t>USTDA</t>
+  </si>
+  <si>
+    <t>IMLS</t>
   </si>
 </sst>
 </file>
@@ -1161,2061 +1560,2499 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
         <v>180</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>18.66</v>
       </c>
-      <c r="D2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.12</v>
       </c>
-      <c r="D3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>2.06</v>
       </c>
-      <c r="D4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1.01</v>
       </c>
-      <c r="D6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.84</v>
       </c>
-      <c r="D8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>4.43</v>
       </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.94</v>
       </c>
-      <c r="D10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>0.3</v>
       </c>
-      <c r="D13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>2.9</v>
       </c>
-      <c r="D14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>0.13</v>
       </c>
-      <c r="D15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>1.83</v>
       </c>
-      <c r="D16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>0.05</v>
       </c>
-      <c r="D17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>1.43</v>
       </c>
-      <c r="D18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>0.92</v>
       </c>
-      <c r="D19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>2.42</v>
       </c>
-      <c r="D21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>1.75</v>
       </c>
-      <c r="D22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>7.84</v>
       </c>
-      <c r="D24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>0.11</v>
       </c>
-      <c r="D26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>0.03</v>
       </c>
-      <c r="D28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>2.38</v>
       </c>
-      <c r="D29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>7.82</v>
       </c>
-      <c r="D31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>0.26</v>
       </c>
-      <c r="D32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>2.02</v>
       </c>
-      <c r="D34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>2.21</v>
       </c>
-      <c r="D36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>0.11</v>
       </c>
-      <c r="D37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>1.33</v>
       </c>
-      <c r="D39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>0.92</v>
       </c>
-      <c r="D40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>2.13</v>
       </c>
-      <c r="D41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>0.23</v>
       </c>
-      <c r="D42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>0.17</v>
       </c>
-      <c r="D43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>0.77</v>
       </c>
-      <c r="D44" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>0.15</v>
       </c>
-      <c r="D45" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>0.06</v>
       </c>
-      <c r="D46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>1.47</v>
       </c>
-      <c r="D47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>8</v>
       </c>
       <c r="B48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="1">
         <v>0.13</v>
       </c>
-      <c r="D48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>0.01</v>
       </c>
-      <c r="D49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>8</v>
       </c>
       <c r="B50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>0.1</v>
       </c>
-      <c r="D50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>8</v>
       </c>
       <c r="B51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>0.71</v>
       </c>
-      <c r="D51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>9</v>
       </c>
       <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>5.91</v>
       </c>
-      <c r="D52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>10</v>
       </c>
       <c r="B53" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>3.74</v>
       </c>
-      <c r="D53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>0.78</v>
       </c>
-      <c r="D54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>10</v>
       </c>
       <c r="B55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>0.06</v>
       </c>
-      <c r="D55" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>10</v>
       </c>
       <c r="B56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>0.06</v>
       </c>
-      <c r="D56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>10</v>
       </c>
       <c r="B57" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="1">
         <v>0.15</v>
       </c>
-      <c r="D57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>10</v>
       </c>
       <c r="B58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="1">
         <v>0.43</v>
       </c>
-      <c r="D58" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>10</v>
       </c>
       <c r="B59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="1">
         <v>0.38</v>
       </c>
-      <c r="D59" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>10</v>
       </c>
       <c r="B60" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>0.18</v>
       </c>
-      <c r="D60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>10</v>
       </c>
       <c r="B61" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>0.05</v>
       </c>
-      <c r="D61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>10</v>
       </c>
       <c r="B62" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D62" s="1">
         <v>0.02</v>
       </c>
-      <c r="D62" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="1">
         <v>5.68</v>
       </c>
-      <c r="D63" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>0.06</v>
       </c>
-      <c r="D64" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>12</v>
       </c>
       <c r="B65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="1">
         <v>0.42</v>
       </c>
-      <c r="D65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>12</v>
       </c>
       <c r="B66" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>0.52</v>
       </c>
-      <c r="D66" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>12</v>
       </c>
       <c r="B67" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>0.16</v>
       </c>
-      <c r="D67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="3">
+      <c r="D68" s="3">
         <v>0</v>
       </c>
-      <c r="D68" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>2.31</v>
       </c>
-      <c r="D69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>0.18</v>
       </c>
-      <c r="D70" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>12</v>
       </c>
       <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>2.04</v>
       </c>
-      <c r="D71" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>13</v>
       </c>
       <c r="B72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>0.25</v>
       </c>
-      <c r="D72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>13</v>
       </c>
       <c r="B73" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="1">
         <v>0.38</v>
       </c>
-      <c r="D73" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>13</v>
       </c>
       <c r="B74" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="1">
         <v>0.02</v>
       </c>
-      <c r="D74" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>13</v>
       </c>
       <c r="B75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C75" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>0.3</v>
       </c>
-      <c r="D75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>13</v>
       </c>
       <c r="B76" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>0.05</v>
       </c>
-      <c r="D76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>13</v>
       </c>
       <c r="B77" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="1">
         <v>1.98</v>
       </c>
-      <c r="D77" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>13</v>
       </c>
       <c r="B78" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>0.71</v>
       </c>
-      <c r="D78" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>13</v>
       </c>
       <c r="B79" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" t="s">
         <v>113</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>0.01</v>
       </c>
-      <c r="D79" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>0</v>
       </c>
-      <c r="D80" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>13</v>
       </c>
       <c r="B81" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>0.25</v>
       </c>
-      <c r="D81" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>13</v>
       </c>
       <c r="B82" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>0.33</v>
       </c>
-      <c r="D82" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>3.3</v>
       </c>
-      <c r="D83" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="B84" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" t="s">
         <v>116</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D84" s="1">
         <v>0.32</v>
       </c>
-      <c r="D84" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>15</v>
       </c>
       <c r="B85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="1">
         <v>1.25</v>
       </c>
-      <c r="D85" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>15</v>
       </c>
       <c r="B86" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="1">
+      <c r="D86" s="1">
         <v>0.13</v>
       </c>
-      <c r="D86" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>15</v>
       </c>
       <c r="B87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" t="s">
         <v>119</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>0.66</v>
       </c>
-      <c r="D87" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>15</v>
       </c>
       <c r="B88" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>0.85</v>
       </c>
-      <c r="D88" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>16</v>
       </c>
       <c r="B89" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D89" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>16</v>
       </c>
       <c r="B90" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" t="s">
         <v>122</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>2.06</v>
       </c>
-      <c r="D90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>16</v>
       </c>
       <c r="B91" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>0.03</v>
       </c>
-      <c r="D91" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>16</v>
       </c>
       <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
         <v>65</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>0.01</v>
       </c>
-      <c r="D92" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>16</v>
       </c>
       <c r="B93" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" t="s">
         <v>124</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>0.6</v>
       </c>
-      <c r="D93" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>17</v>
       </c>
       <c r="B94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" t="s">
         <v>125</v>
       </c>
-      <c r="C94" s="3">
+      <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="D94" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>17</v>
       </c>
       <c r="B95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" t="s">
         <v>126</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D95" s="1">
         <v>0.19</v>
       </c>
-      <c r="D95" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>17</v>
       </c>
       <c r="B96" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" t="s">
         <v>127</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="1">
         <v>0</v>
       </c>
-      <c r="D96" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>17</v>
       </c>
       <c r="B97" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" t="s">
         <v>128</v>
       </c>
-      <c r="C97" s="1">
+      <c r="D97" s="1">
         <v>0.08</v>
       </c>
-      <c r="D97" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>17</v>
       </c>
       <c r="B98" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" t="s">
         <v>129</v>
       </c>
-      <c r="C98" s="1">
+      <c r="D98" s="1">
         <v>0.1</v>
       </c>
-      <c r="D98" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>17</v>
       </c>
       <c r="B99" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="1">
+      <c r="D99" s="1">
         <v>0.03</v>
       </c>
-      <c r="D99" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>17</v>
       </c>
       <c r="B100" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" t="s">
         <v>131</v>
       </c>
-      <c r="C100" s="1">
+      <c r="D100" s="1">
         <v>0.08</v>
       </c>
-      <c r="D100" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>17</v>
       </c>
       <c r="B101" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" t="s">
         <v>132</v>
       </c>
-      <c r="C101" s="1">
+      <c r="D101" s="1">
         <v>0.05</v>
       </c>
-      <c r="D101" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>17</v>
       </c>
       <c r="B102" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" t="s">
         <v>133</v>
       </c>
-      <c r="C102" s="1">
+      <c r="D102" s="1">
         <v>0</v>
       </c>
-      <c r="D102" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>17</v>
       </c>
       <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="1">
+      <c r="D103" s="1">
         <v>1.86</v>
       </c>
-      <c r="D103" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>17</v>
       </c>
       <c r="B104" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" t="s">
         <v>135</v>
       </c>
-      <c r="C104" s="1">
+      <c r="D104" s="1">
         <v>0</v>
       </c>
-      <c r="D104" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>17</v>
       </c>
       <c r="B105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" t="s">
         <v>136</v>
       </c>
-      <c r="C105" s="1">
+      <c r="D105" s="1">
         <v>1.42</v>
       </c>
-      <c r="D105" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>17</v>
       </c>
       <c r="B106" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="1">
+      <c r="D106" s="1">
         <v>0.05</v>
       </c>
-      <c r="D106" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>17</v>
       </c>
       <c r="B107" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="1">
+      <c r="D107" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D107" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>17</v>
       </c>
       <c r="B108" t="s">
+        <v>275</v>
+      </c>
+      <c r="C108" t="s">
         <v>139</v>
       </c>
-      <c r="C108" s="1">
+      <c r="D108" s="1">
         <v>0.05</v>
       </c>
-      <c r="D108" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>17</v>
       </c>
       <c r="B109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" t="s">
         <v>140</v>
       </c>
-      <c r="C109" s="1">
+      <c r="D109" s="1">
         <v>0.15</v>
       </c>
-      <c r="D109" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>17</v>
       </c>
       <c r="B110" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" t="s">
         <v>141</v>
       </c>
-      <c r="C110" s="1">
+      <c r="D110" s="1">
         <v>0.01</v>
       </c>
-      <c r="D110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>17</v>
       </c>
       <c r="B111" t="s">
+        <v>278</v>
+      </c>
+      <c r="C111" t="s">
         <v>142</v>
       </c>
-      <c r="C111" s="3">
+      <c r="D111" s="3">
         <v>0</v>
       </c>
-      <c r="D111" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>17</v>
       </c>
       <c r="B112" t="s">
+        <v>279</v>
+      </c>
+      <c r="C112" t="s">
         <v>143</v>
       </c>
-      <c r="C112" s="1">
+      <c r="D112" s="1">
         <v>0</v>
       </c>
-      <c r="D112" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>17</v>
       </c>
       <c r="B113" t="s">
+        <v>280</v>
+      </c>
+      <c r="C113" t="s">
         <v>144</v>
       </c>
-      <c r="C113" s="1">
+      <c r="D113" s="1">
         <v>0</v>
       </c>
-      <c r="D113" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>17</v>
       </c>
       <c r="B114" t="s">
+        <v>281</v>
+      </c>
+      <c r="C114" t="s">
         <v>145</v>
       </c>
-      <c r="C114" s="1">
+      <c r="D114" s="1">
         <v>0.01</v>
       </c>
-      <c r="D114" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>17</v>
       </c>
       <c r="B115" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" t="s">
         <v>146</v>
       </c>
-      <c r="C115" s="1">
+      <c r="D115" s="1">
         <v>0</v>
       </c>
-      <c r="D115" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>17</v>
       </c>
       <c r="B116" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" t="s">
         <v>147</v>
       </c>
-      <c r="C116" s="1">
+      <c r="D116" s="1">
         <v>0.08</v>
       </c>
-      <c r="D116" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>17</v>
       </c>
       <c r="B117" t="s">
+        <v>284</v>
+      </c>
+      <c r="C117" t="s">
         <v>148</v>
       </c>
-      <c r="C117" s="1">
+      <c r="D117" s="1">
         <v>0.05</v>
       </c>
-      <c r="D117" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>17</v>
       </c>
       <c r="B118" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118" t="s">
         <v>149</v>
       </c>
-      <c r="C118" s="1">
+      <c r="D118" s="1">
         <v>0.91</v>
       </c>
-      <c r="D118" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>17</v>
       </c>
       <c r="B119" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" t="s">
         <v>150</v>
       </c>
-      <c r="C119" s="1">
+      <c r="D119" s="1">
         <v>0.01</v>
       </c>
-      <c r="D119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>17</v>
       </c>
       <c r="B120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" t="s">
         <v>151</v>
       </c>
-      <c r="C120" s="1">
+      <c r="D120" s="1">
         <v>0</v>
       </c>
-      <c r="D120" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>17</v>
       </c>
       <c r="B121" t="s">
+        <v>288</v>
+      </c>
+      <c r="C121" t="s">
         <v>152</v>
       </c>
-      <c r="C121" s="1">
+      <c r="D121" s="1">
         <v>0.09</v>
       </c>
-      <c r="D121" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>17</v>
       </c>
       <c r="B122" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" t="s">
         <v>153</v>
       </c>
-      <c r="C122" s="1">
+      <c r="D122" s="1">
         <v>0.21</v>
       </c>
-      <c r="D122" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>17</v>
       </c>
       <c r="B123" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" t="s">
         <v>154</v>
       </c>
-      <c r="C123" s="1">
+      <c r="D123" s="1">
         <v>0</v>
       </c>
-      <c r="D123" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>17</v>
       </c>
       <c r="B124" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" t="s">
         <v>155</v>
       </c>
-      <c r="C124" s="1">
+      <c r="D124" s="1">
         <v>0</v>
       </c>
-      <c r="D124" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>17</v>
       </c>
       <c r="B125" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" t="s">
         <v>156</v>
       </c>
-      <c r="C125" s="3">
+      <c r="D125" s="3">
         <v>0</v>
       </c>
-      <c r="D125" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>17</v>
       </c>
       <c r="B126" t="s">
+        <v>293</v>
+      </c>
+      <c r="C126" t="s">
         <v>157</v>
       </c>
-      <c r="C126" s="1">
+      <c r="D126" s="1">
         <v>0.02</v>
       </c>
-      <c r="D126" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>17</v>
       </c>
       <c r="B127" t="s">
+        <v>294</v>
+      </c>
+      <c r="C127" t="s">
         <v>158</v>
       </c>
-      <c r="C127" s="1">
+      <c r="D127" s="1">
         <v>0.02</v>
       </c>
-      <c r="D127" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>17</v>
       </c>
       <c r="B128" t="s">
+        <v>295</v>
+      </c>
+      <c r="C128" t="s">
         <v>159</v>
       </c>
-      <c r="C128" s="1">
+      <c r="D128" s="1">
         <v>0.37</v>
       </c>
-      <c r="D128" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>17</v>
       </c>
       <c r="B129" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" t="s">
         <v>160</v>
       </c>
-      <c r="C129" s="1">
+      <c r="D129" s="1">
         <v>0.01</v>
       </c>
-      <c r="D129" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>17</v>
       </c>
       <c r="B130" t="s">
+        <v>297</v>
+      </c>
+      <c r="C130" t="s">
         <v>161</v>
       </c>
-      <c r="C130" s="1">
+      <c r="D130" s="1">
         <v>0.19</v>
       </c>
-      <c r="D130" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>17</v>
       </c>
       <c r="B131" t="s">
+        <v>298</v>
+      </c>
+      <c r="C131" t="s">
         <v>162</v>
       </c>
-      <c r="C131" s="1">
+      <c r="D131" s="1">
         <v>0</v>
       </c>
-      <c r="D131" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>17</v>
       </c>
       <c r="B132" t="s">
+        <v>299</v>
+      </c>
+      <c r="C132" t="s">
         <v>163</v>
       </c>
-      <c r="C132" s="1">
+      <c r="D132" s="1">
         <v>0.68</v>
       </c>
-      <c r="D132" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>17</v>
       </c>
       <c r="B133" t="s">
+        <v>300</v>
+      </c>
+      <c r="C133" t="s">
         <v>164</v>
       </c>
-      <c r="C133" s="1">
+      <c r="D133" s="1">
         <v>0.03</v>
       </c>
-      <c r="D133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>17</v>
       </c>
       <c r="B134" t="s">
+        <v>301</v>
+      </c>
+      <c r="C134" t="s">
         <v>165</v>
       </c>
-      <c r="C134" s="1">
+      <c r="D134" s="1">
         <v>0.1</v>
       </c>
-      <c r="D134" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>17</v>
       </c>
       <c r="B135" t="s">
+        <v>302</v>
+      </c>
+      <c r="C135" t="s">
         <v>166</v>
       </c>
-      <c r="C135" s="1">
+      <c r="D135" s="1">
         <v>0.33</v>
       </c>
-      <c r="D135" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>17</v>
       </c>
       <c r="B136" t="s">
+        <v>303</v>
+      </c>
+      <c r="C136" t="s">
         <v>167</v>
       </c>
-      <c r="C136" s="1">
+      <c r="D136" s="1">
         <v>0.01</v>
       </c>
-      <c r="D136" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>17</v>
       </c>
       <c r="B137" t="s">
+        <v>304</v>
+      </c>
+      <c r="C137" t="s">
         <v>168</v>
       </c>
-      <c r="C137" s="1">
+      <c r="D137" s="1">
         <v>0.04</v>
       </c>
-      <c r="D137" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>17</v>
       </c>
       <c r="B138" t="s">
+        <v>305</v>
+      </c>
+      <c r="C138" t="s">
         <v>169</v>
       </c>
-      <c r="C138" s="1">
+      <c r="D138" s="1">
         <v>0.38</v>
       </c>
-      <c r="D138" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>17</v>
       </c>
       <c r="B139" t="s">
+        <v>306</v>
+      </c>
+      <c r="C139" t="s">
         <v>170</v>
       </c>
-      <c r="C139" s="1">
+      <c r="D139" s="1">
         <v>0</v>
       </c>
-      <c r="D139" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>17</v>
       </c>
       <c r="B140" t="s">
+        <v>307</v>
+      </c>
+      <c r="C140" t="s">
         <v>171</v>
       </c>
-      <c r="C140" s="1">
+      <c r="D140" s="1">
         <v>0.11</v>
       </c>
-      <c r="D140" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>17</v>
       </c>
       <c r="B141" t="s">
+        <v>308</v>
+      </c>
+      <c r="C141" t="s">
         <v>172</v>
       </c>
-      <c r="C141" s="1">
+      <c r="D141" s="1">
         <v>0.26</v>
       </c>
-      <c r="D141" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>17</v>
       </c>
       <c r="B142" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" t="s">
         <v>173</v>
       </c>
-      <c r="C142" s="1">
+      <c r="D142" s="1">
         <v>1.17</v>
       </c>
-      <c r="D142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>17</v>
       </c>
       <c r="B143" t="s">
+        <v>310</v>
+      </c>
+      <c r="C143" t="s">
         <v>174</v>
       </c>
-      <c r="C143" s="1">
+      <c r="D143" s="1">
         <v>0</v>
       </c>
-      <c r="D143" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>17</v>
       </c>
       <c r="B144" t="s">
+        <v>313</v>
+      </c>
+      <c r="C144" t="s">
         <v>175</v>
       </c>
-      <c r="C144" s="1">
+      <c r="D144" s="1">
         <v>0</v>
       </c>
-      <c r="D144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>17</v>
       </c>
       <c r="B145" t="s">
+        <v>311</v>
+      </c>
+      <c r="C145" t="s">
         <v>176</v>
       </c>
-      <c r="C145" s="3">
+      <c r="D145" s="3">
         <v>0</v>
       </c>
-      <c r="D145" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>17</v>
       </c>
       <c r="B146" t="s">
+        <v>312</v>
+      </c>
+      <c r="C146" t="s">
         <v>177</v>
       </c>
-      <c r="C146" s="1">
+      <c r="D146" s="1">
         <v>0.03</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>179</v>
       </c>
     </row>
